--- a/medicine/Sexualité et sexologie/Jessica_Cutler/Jessica_Cutler.xlsx
+++ b/medicine/Sexualité et sexologie/Jessica_Cutler/Jessica_Cutler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jessica Cutler, née le 18 mai 1978 à Syracuse (État de New York), est une blogueuse américaine. Ex-stagiaire au Capitole des États-Unis, elle est connue pour ses aventures sexuelles dans les couloirs de Washington.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En janvier 2004, elle rentre comme stagiaire auprès du sénateur américain Michael DeWine (en). Alors qu'elle travaille pour lui, elle commence à publier sur le blog Washingtonienne sa vie au à Washington, D.C., y compris des détails sur ses aventures sexuelles dans les couloirs du Congrès des États-Unis. Elle justifie les dons en argent de ses amants en affirmant ne pas être la seule à recevoir de l'argent pour des faveurs sexuelles, et posant la question : « Qui peut vivre avec 25 000 $ par année ? » (How can anybody live on $25K/year?).
-En mai 2004, son identité est révélée dans le blogue Wonkette, ce qui provoque un scandale au Congrès[1],[2].
-Le 21 mai 2004, le sénateur DeWine vire Cutler pour usage inapproprié des ordinateurs du Sénat des États-Unis. Les médias la traitent durement. Par exemple, le quotidien Philadelphia Daily News la traite de « traînée de DC » (DC slut)[3]. Cutler est toutefois serein à propos de sa popularité, indiquant que l'embarras public est libérateur, que seuls les plus âgés sont capables de réagir avec un aplomb certain (great aplomb)[4].
-À l'été 2004, Playboy la met en vedette dans une interview, Cutler posant nue[5].
-En 2005, elle publie le récit de ses aventures en s'inspirant de ses aventures et de son blogue : The Washingtonienne: A Novel, l'ayant vendu selon des rumeurs pour 300 000 $[6]. Un critique du Washington Post a rapporté qu'il comprend des anecdotes de vie « qui sont fraîches, amusantes et agréables à lire » (being lively, funny and agreeably in-your-face)[7]. Judy Bachrach, du quotidien The Weekly Standard écrit que c'est un récit « très candide, humoristique et perpspicace » (uncommon candor, humor, and perspicacity), qu'elle a beaucoup apprécié[8]. En 2006, il est traduit en français sous le titre Sexe au Capitole chez Plon.
+En mai 2004, son identité est révélée dans le blogue Wonkette, ce qui provoque un scandale au Congrès,.
+Le 21 mai 2004, le sénateur DeWine vire Cutler pour usage inapproprié des ordinateurs du Sénat des États-Unis. Les médias la traitent durement. Par exemple, le quotidien Philadelphia Daily News la traite de « traînée de DC » (DC slut). Cutler est toutefois serein à propos de sa popularité, indiquant que l'embarras public est libérateur, que seuls les plus âgés sont capables de réagir avec un aplomb certain (great aplomb).
+À l'été 2004, Playboy la met en vedette dans une interview, Cutler posant nue.
+En 2005, elle publie le récit de ses aventures en s'inspirant de ses aventures et de son blogue : The Washingtonienne: A Novel, l'ayant vendu selon des rumeurs pour 300 000 $. Un critique du Washington Post a rapporté qu'il comprend des anecdotes de vie « qui sont fraîches, amusantes et agréables à lire » (being lively, funny and agreeably in-your-face). Judy Bachrach, du quotidien The Weekly Standard écrit que c'est un récit « très candide, humoristique et perpspicace » (uncommon candor, humor, and perspicacity), qu'elle a beaucoup apprécié. En 2006, il est traduit en français sous le titre Sexe au Capitole chez Plon.
 </t>
         </is>
       </c>
